--- a/Resources/6-GenericStockOrder.xlsx
+++ b/Resources/6-GenericStockOrder.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>CustomerNumber</t>
   </si>
@@ -79,6 +79,51 @@
   </si>
   <si>
     <t>DeliverMethod</t>
+  </si>
+  <si>
+    <t>Item2</t>
+  </si>
+  <si>
+    <t>quantity2</t>
+  </si>
+  <si>
+    <t>Item3</t>
+  </si>
+  <si>
+    <t>Quant3</t>
+  </si>
+  <si>
+    <t>Item4</t>
+  </si>
+  <si>
+    <t>Quantitiy4</t>
+  </si>
+  <si>
+    <t>Item5</t>
+  </si>
+  <si>
+    <t>Quantity5</t>
+  </si>
+  <si>
+    <t>Item6</t>
+  </si>
+  <si>
+    <t>Quanty6</t>
+  </si>
+  <si>
+    <t>TB7SX1-0</t>
+  </si>
+  <si>
+    <t>TH7ABRZ-P12</t>
+  </si>
+  <si>
+    <t>6183E-ML</t>
+  </si>
+  <si>
+    <t>TA6ESVP-0</t>
+  </si>
+  <si>
+    <t>732RA38</t>
   </si>
 </sst>
 </file>
@@ -430,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,9 +492,10 @@
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,8 +529,38 @@
       <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -517,6 +593,36 @@
       </c>
       <c r="K2" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/6-GenericStockOrder.xlsx
+++ b/Resources/6-GenericStockOrder.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>CustomerNumber</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>732RA38</t>
+  </si>
+  <si>
+    <t>WHNumber</t>
   </si>
 </sst>
 </file>
@@ -475,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,13 +492,14 @@
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,52 +519,55 @@
         <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -579,49 +586,50 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>32</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>12</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>6</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>34</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>35</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1</v>
       </c>
     </row>

--- a/Resources/6-GenericStockOrder.xlsx
+++ b/Resources/6-GenericStockOrder.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="87">
   <si>
     <t>CustomerNumber</t>
   </si>
@@ -127,6 +127,156 @@
   </si>
   <si>
     <t>WHNumber</t>
+  </si>
+  <si>
+    <t>US00064622</t>
+  </si>
+  <si>
+    <t>US00025028</t>
+  </si>
+  <si>
+    <t>US00025065</t>
+  </si>
+  <si>
+    <t>US00005559</t>
+  </si>
+  <si>
+    <t>US00025025</t>
+  </si>
+  <si>
+    <t>US00025061</t>
+  </si>
+  <si>
+    <t>US00002954</t>
+  </si>
+  <si>
+    <t>US00034340</t>
+  </si>
+  <si>
+    <t>US00025053</t>
+  </si>
+  <si>
+    <t>US00027507</t>
+  </si>
+  <si>
+    <t>US00026788</t>
+  </si>
+  <si>
+    <t>US00034967</t>
+  </si>
+  <si>
+    <t>US00028326</t>
+  </si>
+  <si>
+    <t>US00033551</t>
+  </si>
+  <si>
+    <t>US00033499</t>
+  </si>
+  <si>
+    <t>US00025132</t>
+  </si>
+  <si>
+    <t>US00025107</t>
+  </si>
+  <si>
+    <t>06B WM Test</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Hats</t>
+  </si>
+  <si>
+    <t>Accessory</t>
+  </si>
+  <si>
+    <t>Bags</t>
+  </si>
+  <si>
+    <t>Travel Gear</t>
+  </si>
+  <si>
+    <t>Golf Balls</t>
+  </si>
+  <si>
+    <t>PPD</t>
+  </si>
+  <si>
+    <t>BPR</t>
+  </si>
+  <si>
+    <t>BPG</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>D75</t>
+  </si>
+  <si>
+    <t>BCN</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t>FFP</t>
+  </si>
+  <si>
+    <t>YRC</t>
+  </si>
+  <si>
+    <t>FS1</t>
+  </si>
+  <si>
+    <t>LTL</t>
+  </si>
+  <si>
+    <t>TB7SX14-4</t>
+  </si>
+  <si>
+    <t>TA5ACMFTWL</t>
+  </si>
+  <si>
+    <t>TA6ESLBP-0</t>
+  </si>
+  <si>
+    <t>TA7PFZIP-0</t>
+  </si>
+  <si>
+    <t>T2045S</t>
   </si>
 </sst>
 </file>
@@ -169,12 +319,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -478,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,6 +646,7 @@
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
@@ -602,36 +756,2202 @@
       <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>12</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>6</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>1</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="1">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="1">
+        <v>12</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="1">
+        <v>24</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="1">
+        <v>24</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="1">
+        <v>12</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="1">
+        <v>12</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="1">
+        <v>10</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="1">
+        <v>40</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="1">
+        <v>10</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="1">
+        <v>10</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="1">
+        <v>40</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="1">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="1">
+        <v>4</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="1">
+        <v>5</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" s="1">
+        <v>24</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" s="1">
+        <v>24</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="1">
+        <v>24</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="1">
+        <v>24</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="1">
+        <v>24</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" s="1">
+        <v>6</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43" s="1">
+        <v>6</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" s="1">
+        <v>6</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45" s="1">
+        <v>6</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46" s="1">
+        <v>4</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I47" s="1">
+        <v>4</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" s="1">
+        <v>4</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I49" s="1">
+        <v>4</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I50" s="1">
+        <v>4</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I51" s="1">
+        <v>4</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I52" s="1">
+        <v>4</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I53" s="1">
+        <v>2</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I54" s="1">
+        <v>504</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I55" s="1">
+        <v>2032</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1008</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I57" s="1">
+        <v>504</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I58" s="1">
+        <v>2032</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1008</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/6-GenericStockOrder.xlsx
+++ b/Resources/6-GenericStockOrder.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -634,18 +634,18 @@
   <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>

--- a/Resources/6-GenericStockOrder.xlsx
+++ b/Resources/6-GenericStockOrder.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>CustomerNumber</t>
   </si>
@@ -100,6 +100,51 @@
   </si>
   <si>
     <t>632RG2S95</t>
+  </si>
+  <si>
+    <t>US00060736</t>
+  </si>
+  <si>
+    <t>PPD</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>532RSS3P</t>
+  </si>
+  <si>
+    <t>CF00</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>US00028338</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>530LSS4P</t>
+  </si>
+  <si>
+    <t>USTPU25</t>
+  </si>
+  <si>
+    <t>US00064622</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>722RB35</t>
+  </si>
+  <si>
+    <t>723RR34</t>
+  </si>
+  <si>
+    <t>724R5B33</t>
   </si>
 </sst>
 </file>
@@ -457,7 +502,7 @@
   <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,6 +518,8 @@
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
     <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -585,17 +632,37 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -609,18 +676,36 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -633,22 +718,46 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1983,15 +2092,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -2105,6 +2205,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2112,14 +2221,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29CF680F-086B-4699-A528-361E99DE9EE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B55BDA24-3070-4304-BD7F-97884B0A426F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2135,17 +2236,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29CF680F-086B-4699-A528-361E99DE9EE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A6C880E-6052-4FAA-BB7D-48B8BB1F07E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Resources/6-GenericStockOrder.xlsx
+++ b/Resources/6-GenericStockOrder.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="41">
   <si>
     <t>CustomerNumber</t>
   </si>
@@ -139,12 +139,6 @@
   </si>
   <si>
     <t>722RB35</t>
-  </si>
-  <si>
-    <t>723RR34</t>
-  </si>
-  <si>
-    <t>724R5B33</t>
   </si>
 </sst>
 </file>
@@ -187,15 +181,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,7 +493,7 @@
   <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="A10" sqref="A10:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,18 +737,10 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="1">
-        <v>2</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -765,16 +748,32 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -790,17 +789,37 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="3"/>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -814,18 +833,36 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -838,15 +875,31 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -861,16 +914,32 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -886,17 +955,37 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -910,18 +999,36 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -934,15 +1041,31 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -957,16 +1080,32 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+    <row r="14" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -982,17 +1121,37 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1006,18 +1165,36 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1030,15 +1207,31 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2247,14 +2440,14 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A6C880E-6052-4FAA-BB7D-48B8BB1F07E0}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Resources/6-GenericStockOrder.xlsx
+++ b/Resources/6-GenericStockOrder.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>CustomerNumber</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>722RB35</t>
+  </si>
+  <si>
+    <t>723RR34</t>
+  </si>
+  <si>
+    <t>724R5B33</t>
   </si>
 </sst>
 </file>
@@ -181,12 +187,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -493,7 +502,7 @@
   <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD17"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,10 +746,18 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -748,32 +765,16 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -789,37 +790,17 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -833,36 +814,18 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -875,31 +838,15 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -914,32 +861,16 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -955,37 +886,17 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -999,36 +910,18 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1041,31 +934,15 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1080,32 +957,16 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1121,37 +982,17 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1165,36 +1006,18 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1207,31 +1030,15 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2285,6 +2092,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -2398,15 +2214,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2414,6 +2221,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29CF680F-086B-4699-A528-361E99DE9EE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B55BDA24-3070-4304-BD7F-97884B0A426F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2429,24 +2244,16 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29CF680F-086B-4699-A528-361E99DE9EE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A6C880E-6052-4FAA-BB7D-48B8BB1F07E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
